--- a/Code/Results/Cases/Case_0_214/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_214/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00074936783332</v>
+        <v>1.03904870566557</v>
       </c>
       <c r="D2">
-        <v>1.008599941707552</v>
+        <v>1.039573821909864</v>
       </c>
       <c r="E2">
-        <v>1.01330059996288</v>
+        <v>1.046505508868202</v>
       </c>
       <c r="F2">
-        <v>1.01572802347872</v>
+        <v>1.054732616899275</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047689862530244</v>
+        <v>1.035355289966702</v>
       </c>
       <c r="J2">
-        <v>1.022907688514534</v>
+        <v>1.044142831731078</v>
       </c>
       <c r="K2">
-        <v>1.019940751892902</v>
+        <v>1.042358624097512</v>
       </c>
       <c r="L2">
-        <v>1.024577694768718</v>
+        <v>1.049270756065966</v>
       </c>
       <c r="M2">
-        <v>1.026972505720579</v>
+        <v>1.057475016126918</v>
       </c>
       <c r="N2">
-        <v>1.011316195995985</v>
+        <v>1.018599691489917</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006744243266981</v>
+        <v>1.040262663587245</v>
       </c>
       <c r="D3">
-        <v>1.01363654134848</v>
+        <v>1.040638363080612</v>
       </c>
       <c r="E3">
-        <v>1.01852619821019</v>
+        <v>1.04762084730265</v>
       </c>
       <c r="F3">
-        <v>1.021680552991226</v>
+        <v>1.056021930560533</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04938775010555</v>
+        <v>1.035582670209815</v>
       </c>
       <c r="J3">
-        <v>1.027052726776919</v>
+        <v>1.045000510791169</v>
       </c>
       <c r="K3">
-        <v>1.024097863378884</v>
+        <v>1.043232741507759</v>
       </c>
       <c r="L3">
-        <v>1.028927395913557</v>
+        <v>1.050196961774626</v>
       </c>
       <c r="M3">
-        <v>1.032043343430294</v>
+        <v>1.058576415766</v>
       </c>
       <c r="N3">
-        <v>1.012712344833089</v>
+        <v>1.018886367530547</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010521182820406</v>
+        <v>1.041047314531491</v>
       </c>
       <c r="D4">
-        <v>1.016815035979768</v>
+        <v>1.041326690368995</v>
       </c>
       <c r="E4">
-        <v>1.021825188113989</v>
+        <v>1.04834219839105</v>
       </c>
       <c r="F4">
-        <v>1.025439863793353</v>
+        <v>1.0568561116763</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050439288134759</v>
+        <v>1.035727358664905</v>
       </c>
       <c r="J4">
-        <v>1.029659531682344</v>
+        <v>1.045554125875561</v>
       </c>
       <c r="K4">
-        <v>1.026714667408481</v>
+        <v>1.043797258629948</v>
       </c>
       <c r="L4">
-        <v>1.031667149481683</v>
+        <v>1.050795346466586</v>
       </c>
       <c r="M4">
-        <v>1.035240649438194</v>
+        <v>1.05928845290075</v>
       </c>
       <c r="N4">
-        <v>1.013590146086595</v>
+        <v>1.019071333369091</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012085671119831</v>
+        <v>1.041376978058296</v>
       </c>
       <c r="D5">
-        <v>1.018132843715934</v>
+        <v>1.041615944383286</v>
       </c>
       <c r="E5">
-        <v>1.023193254622102</v>
+        <v>1.048645372791096</v>
       </c>
       <c r="F5">
-        <v>1.026999183314635</v>
+        <v>1.057206781726231</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050870423570676</v>
+        <v>1.035787601331858</v>
       </c>
       <c r="J5">
-        <v>1.03073814761346</v>
+        <v>1.045786541267573</v>
       </c>
       <c r="K5">
-        <v>1.027797998183113</v>
+        <v>1.044034320710817</v>
       </c>
       <c r="L5">
-        <v>1.032801798992113</v>
+        <v>1.051046685627428</v>
       </c>
       <c r="M5">
-        <v>1.0365656030761</v>
+        <v>1.05958764138645</v>
       </c>
       <c r="N5">
-        <v>1.013953290707108</v>
+        <v>1.019148965866174</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012347018138989</v>
+        <v>1.041432318137519</v>
       </c>
       <c r="D6">
-        <v>1.018353052146026</v>
+        <v>1.041664504480542</v>
       </c>
       <c r="E6">
-        <v>1.023421879344158</v>
+        <v>1.048696272367747</v>
       </c>
       <c r="F6">
-        <v>1.027259791294839</v>
+        <v>1.057265659676778</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050942181732447</v>
+        <v>1.03579768207925</v>
       </c>
       <c r="J6">
-        <v>1.030918259103746</v>
+        <v>1.045825545850985</v>
       </c>
       <c r="K6">
-        <v>1.027978930954599</v>
+        <v>1.044074109214416</v>
       </c>
       <c r="L6">
-        <v>1.032991327596585</v>
+        <v>1.051088873615689</v>
       </c>
       <c r="M6">
-        <v>1.036786967674942</v>
+        <v>1.059637867592404</v>
       </c>
       <c r="N6">
-        <v>1.014013926139244</v>
+        <v>1.019161993259774</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010542177867517</v>
+        <v>1.041051720309236</v>
       </c>
       <c r="D7">
-        <v>1.016832715936617</v>
+        <v>1.041330555860283</v>
       </c>
       <c r="E7">
-        <v>1.021843541150227</v>
+        <v>1.048346249740899</v>
       </c>
       <c r="F7">
-        <v>1.025460781086377</v>
+        <v>1.056860797421448</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050445091497915</v>
+        <v>1.035728165926282</v>
       </c>
       <c r="J7">
-        <v>1.029674011170195</v>
+        <v>1.045557232694396</v>
       </c>
       <c r="K7">
-        <v>1.026729207903172</v>
+        <v>1.043800427288721</v>
       </c>
       <c r="L7">
-        <v>1.031682377112149</v>
+        <v>1.050798705742374</v>
       </c>
       <c r="M7">
-        <v>1.035258427826719</v>
+        <v>1.059292451266706</v>
       </c>
       <c r="N7">
-        <v>1.013595021246053</v>
+        <v>1.019072371197415</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00279721138381</v>
+        <v>1.039459148153904</v>
       </c>
       <c r="D8">
-        <v>1.010319284425927</v>
+        <v>1.039933693385955</v>
       </c>
       <c r="E8">
-        <v>1.015084209034228</v>
+        <v>1.046882515616856</v>
       </c>
       <c r="F8">
-        <v>1.017759471597358</v>
+        <v>1.055168366608406</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048273642429557</v>
+        <v>1.035432639896037</v>
       </c>
       <c r="J8">
-        <v>1.024324582479636</v>
+        <v>1.044432970925531</v>
       </c>
       <c r="K8">
-        <v>1.021361265465654</v>
+        <v>1.042654263743004</v>
       </c>
       <c r="L8">
-        <v>1.026063659323302</v>
+        <v>1.049583965539049</v>
       </c>
       <c r="M8">
-        <v>1.028704135307448</v>
+        <v>1.05784737332081</v>
       </c>
       <c r="N8">
-        <v>1.011793485161803</v>
+        <v>1.018696685544703</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9883127429152793</v>
+        <v>1.036646129853127</v>
       </c>
       <c r="D9">
-        <v>0.9981838800814202</v>
+        <v>1.037468333922469</v>
       </c>
       <c r="E9">
-        <v>1.002500091121405</v>
+        <v>1.044300495865185</v>
       </c>
       <c r="F9">
-        <v>1.003431608101533</v>
+        <v>1.052185294810353</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044069526166516</v>
+        <v>1.034893174035429</v>
       </c>
       <c r="J9">
-        <v>1.014285067735467</v>
+        <v>1.042441395888919</v>
       </c>
       <c r="K9">
-        <v>1.011306491446368</v>
+        <v>1.040626129234296</v>
       </c>
       <c r="L9">
-        <v>1.015552735903699</v>
+        <v>1.047436232003699</v>
       </c>
       <c r="M9">
-        <v>1.016469254134348</v>
+        <v>1.055295962564934</v>
       </c>
       <c r="N9">
-        <v>1.00841089403252</v>
+        <v>1.018030581259352</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9780099648423893</v>
+        <v>1.034766122767598</v>
       </c>
       <c r="D10">
-        <v>0.9895881219720771</v>
+        <v>1.035822038917788</v>
       </c>
       <c r="E10">
-        <v>0.9935923440582818</v>
+        <v>1.042577207388241</v>
       </c>
       <c r="F10">
-        <v>0.9932944013455671</v>
+        <v>1.050195910798633</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040986758730781</v>
+        <v>1.034520932776569</v>
       </c>
       <c r="J10">
-        <v>1.0071240557276</v>
+        <v>1.041106542230809</v>
       </c>
       <c r="K10">
-        <v>1.004147945655227</v>
+        <v>1.039268273446667</v>
       </c>
       <c r="L10">
-        <v>1.008078262569253</v>
+        <v>1.045999469802657</v>
       </c>
       <c r="M10">
-        <v>1.007785792199708</v>
+        <v>1.053591544179512</v>
       </c>
       <c r="N10">
-        <v>1.005997558676276</v>
+        <v>1.017583729843039</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9733741723653047</v>
+        <v>1.033950917731294</v>
       </c>
       <c r="D11">
-        <v>0.985730225500887</v>
+        <v>1.035108507426771</v>
       </c>
       <c r="E11">
-        <v>0.9895956764313208</v>
+        <v>1.041830519555309</v>
       </c>
       <c r="F11">
-        <v>0.9887467933578679</v>
+        <v>1.049334295290027</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039578875537109</v>
+        <v>1.034356755672148</v>
       </c>
       <c r="J11">
-        <v>1.003898155526517</v>
+        <v>1.040526822130337</v>
       </c>
       <c r="K11">
-        <v>1.000926361338938</v>
+        <v>1.038678919042832</v>
       </c>
       <c r="L11">
-        <v>1.004716507017619</v>
+        <v>1.045376142135908</v>
       </c>
       <c r="M11">
-        <v>1.003884095417101</v>
+        <v>1.052852660220161</v>
       </c>
       <c r="N11">
-        <v>1.004910368329268</v>
+        <v>1.017389572144134</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9716239635216963</v>
+        <v>1.033647938387484</v>
       </c>
       <c r="D12">
-        <v>0.984275295329169</v>
+        <v>1.034843366652748</v>
       </c>
       <c r="E12">
-        <v>0.9880885877007869</v>
+        <v>1.041553090237034</v>
       </c>
       <c r="F12">
-        <v>0.9870320119568889</v>
+        <v>1.049014220183822</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039044323689895</v>
+        <v>1.03429532264083</v>
       </c>
       <c r="J12">
-        <v>1.002679765242948</v>
+        <v>1.040311227986485</v>
       </c>
       <c r="K12">
-        <v>0.9997100865127369</v>
+        <v>1.038459795300717</v>
       </c>
       <c r="L12">
-        <v>1.003447605745625</v>
+        <v>1.045144428157694</v>
       </c>
       <c r="M12">
-        <v>1.002411947945535</v>
+        <v>1.052578074229238</v>
       </c>
       <c r="N12">
-        <v>1.004499753177017</v>
+        <v>1.017317352372196</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9720007035057272</v>
+        <v>1.033712936496341</v>
       </c>
       <c r="D13">
-        <v>0.9845884015666163</v>
+        <v>1.034900244960823</v>
       </c>
       <c r="E13">
-        <v>0.9884129108917662</v>
+        <v>1.041612603251982</v>
       </c>
       <c r="F13">
-        <v>0.9874010283470971</v>
+        <v>1.049082878907983</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039159522689701</v>
+        <v>1.034308520621866</v>
       </c>
       <c r="J13">
-        <v>1.002942048959436</v>
+        <v>1.040357485471878</v>
       </c>
       <c r="K13">
-        <v>0.9999718928490143</v>
+        <v>1.038506807677973</v>
       </c>
       <c r="L13">
-        <v>1.003720726928223</v>
+        <v>1.045194139876011</v>
       </c>
       <c r="M13">
-        <v>1.002728791511775</v>
+        <v>1.052636979850697</v>
       </c>
       <c r="N13">
-        <v>1.004588146155641</v>
+        <v>1.017332848336449</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9732300887607856</v>
+        <v>1.033925876970976</v>
       </c>
       <c r="D14">
-        <v>0.9856104173523449</v>
+        <v>1.035086592928902</v>
       </c>
       <c r="E14">
-        <v>0.9894715697111337</v>
+        <v>1.041807588728856</v>
       </c>
       <c r="F14">
-        <v>0.9886055824840055</v>
+        <v>1.049307838466293</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039534929852571</v>
+        <v>1.034351686788474</v>
       </c>
       <c r="J14">
-        <v>1.003797862288811</v>
+        <v>1.040509006372142</v>
       </c>
       <c r="K14">
-        <v>1.000826232362784</v>
+        <v>1.038660810526741</v>
       </c>
       <c r="L14">
-        <v>1.004612039690691</v>
+        <v>1.045356992317398</v>
       </c>
       <c r="M14">
-        <v>1.003762883870399</v>
+        <v>1.05282996555514</v>
       </c>
       <c r="N14">
-        <v>1.004876567880036</v>
+        <v>1.017383604498172</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9739837431884925</v>
+        <v>1.03405705322158</v>
       </c>
       <c r="D15">
-        <v>0.9862371601664768</v>
+        <v>1.035201394299087</v>
       </c>
       <c r="E15">
-        <v>0.9901208064008397</v>
+        <v>1.041927715551323</v>
       </c>
       <c r="F15">
-        <v>0.9893442978976986</v>
+        <v>1.049446439050988</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039764673358282</v>
+        <v>1.034378223198037</v>
       </c>
       <c r="J15">
-        <v>1.004322444759603</v>
+        <v>1.040602328851107</v>
       </c>
       <c r="K15">
-        <v>1.001349975435461</v>
+        <v>1.038755668712563</v>
       </c>
       <c r="L15">
-        <v>1.005158487209759</v>
+        <v>1.045457306860209</v>
       </c>
       <c r="M15">
-        <v>1.004396939525878</v>
+        <v>1.052948852906371</v>
       </c>
       <c r="N15">
-        <v>1.005053360984959</v>
+        <v>1.017414863649077</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9783137791883117</v>
+        <v>1.034820200749569</v>
       </c>
       <c r="D16">
-        <v>0.9898411686789469</v>
+        <v>1.035869379262347</v>
       </c>
       <c r="E16">
-        <v>0.9938545180628299</v>
+        <v>1.042626752034868</v>
       </c>
       <c r="F16">
-        <v>0.9935927266636002</v>
+        <v>1.050253088946362</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041078604408356</v>
+        <v>1.034531765543739</v>
       </c>
       <c r="J16">
-        <v>1.007335399760671</v>
+        <v>1.041144979949379</v>
       </c>
       <c r="K16">
-        <v>1.004359073705071</v>
+        <v>1.039307357431583</v>
       </c>
       <c r="L16">
-        <v>1.008298617787414</v>
+        <v>1.046040812549239</v>
       </c>
       <c r="M16">
-        <v>1.00804161704974</v>
+        <v>1.0536405631559</v>
       </c>
       <c r="N16">
-        <v>1.006068785918844</v>
+        <v>1.017596601324456</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9809817741026232</v>
+        <v>1.03529859301808</v>
       </c>
       <c r="D17">
-        <v>0.9920644630143005</v>
+        <v>1.036288206479314</v>
       </c>
       <c r="E17">
-        <v>0.9961581464986133</v>
+        <v>1.043065105728307</v>
       </c>
       <c r="F17">
-        <v>0.9962140764327061</v>
+        <v>1.050759023817251</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041882822639713</v>
+        <v>1.034627276622619</v>
       </c>
       <c r="J17">
-        <v>1.009190935814327</v>
+        <v>1.041484908891035</v>
       </c>
       <c r="K17">
-        <v>1.006213076449249</v>
+        <v>1.03965304269942</v>
       </c>
       <c r="L17">
-        <v>1.01023387432153</v>
+        <v>1.04640650751689</v>
       </c>
       <c r="M17">
-        <v>1.010288813836768</v>
+        <v>1.054074222869731</v>
       </c>
       <c r="N17">
-        <v>1.006694137294473</v>
+        <v>1.017710421289804</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9825212700888531</v>
+        <v>1.035577520436321</v>
       </c>
       <c r="D18">
-        <v>0.993348273487359</v>
+        <v>1.036532436330292</v>
       </c>
       <c r="E18">
-        <v>0.9974884640153898</v>
+        <v>1.043320742649048</v>
       </c>
       <c r="F18">
-        <v>0.9977279419139882</v>
+        <v>1.051054108050723</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042344909548904</v>
+        <v>1.03468269775924</v>
       </c>
       <c r="J18">
-        <v>1.010261262898292</v>
+        <v>1.041683017901956</v>
       </c>
       <c r="K18">
-        <v>1.007282820773621</v>
+        <v>1.039854540705514</v>
       </c>
       <c r="L18">
-        <v>1.011350691125597</v>
+        <v>1.046619695545731</v>
       </c>
       <c r="M18">
-        <v>1.01158600962913</v>
+        <v>1.054327086477617</v>
       </c>
       <c r="N18">
-        <v>1.007054854762116</v>
+        <v>1.017776746129503</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9830434241512855</v>
+        <v>1.03567260879704</v>
       </c>
       <c r="D19">
-        <v>0.9937838584796095</v>
+        <v>1.036615701436602</v>
       </c>
       <c r="E19">
-        <v>0.9979398489885973</v>
+        <v>1.043407900263683</v>
       </c>
       <c r="F19">
-        <v>0.9982416185762579</v>
+        <v>1.051154721007822</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042501300035632</v>
+        <v>1.034701545953705</v>
       </c>
       <c r="J19">
-        <v>1.010624224192195</v>
+        <v>1.041750539891842</v>
       </c>
       <c r="K19">
-        <v>1.007645635518663</v>
+        <v>1.039923223583796</v>
       </c>
       <c r="L19">
-        <v>1.011729503390988</v>
+        <v>1.046692367596937</v>
       </c>
       <c r="M19">
-        <v>1.012026066344023</v>
+        <v>1.054413292468105</v>
       </c>
       <c r="N19">
-        <v>1.007177177704152</v>
+        <v>1.017799350276481</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9806972649170239</v>
+        <v>1.035247277529503</v>
       </c>
       <c r="D20">
-        <v>0.9918272796798225</v>
+        <v>1.036243277019332</v>
       </c>
       <c r="E20">
-        <v>0.9959123807422026</v>
+        <v>1.043018079442552</v>
       </c>
       <c r="F20">
-        <v>0.9959344074042702</v>
+        <v>1.050704743782459</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041797266026501</v>
+        <v>1.03461705906994</v>
       </c>
       <c r="J20">
-        <v>1.008993102358803</v>
+        <v>1.041448454895936</v>
       </c>
       <c r="K20">
-        <v>1.006015375106583</v>
+        <v>1.039615967853801</v>
       </c>
       <c r="L20">
-        <v>1.010027488840832</v>
+        <v>1.046367283886471</v>
       </c>
       <c r="M20">
-        <v>1.010049124064943</v>
+        <v>1.05402770386631</v>
       </c>
       <c r="N20">
-        <v>1.006627463891242</v>
+        <v>1.01769821615256</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9728688632218137</v>
+        <v>1.033863176189918</v>
       </c>
       <c r="D21">
-        <v>0.9853100777110796</v>
+        <v>1.035031720967756</v>
       </c>
       <c r="E21">
-        <v>0.989160457040702</v>
+        <v>1.041750172487452</v>
       </c>
       <c r="F21">
-        <v>0.9882515936549217</v>
+        <v>1.04924159441004</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039424707439937</v>
+        <v>1.034338987864126</v>
       </c>
       <c r="J21">
-        <v>1.003546414275955</v>
+        <v>1.040464394444338</v>
       </c>
       <c r="K21">
-        <v>1.000575203998536</v>
+        <v>1.038615466373473</v>
       </c>
       <c r="L21">
-        <v>1.004350139562531</v>
+        <v>1.045309041381894</v>
       </c>
       <c r="M21">
-        <v>1.003459014774981</v>
+        <v>1.052773139727537</v>
       </c>
       <c r="N21">
-        <v>1.004791825945989</v>
+        <v>1.017368660865268</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9677821103993454</v>
+        <v>1.032991917465093</v>
       </c>
       <c r="D22">
-        <v>0.9810846697132055</v>
+        <v>1.034269368290551</v>
       </c>
       <c r="E22">
-        <v>0.9847838902277847</v>
+        <v>1.040952547019436</v>
       </c>
       <c r="F22">
-        <v>0.9832719505123613</v>
+        <v>1.048321463469906</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037865502861242</v>
+        <v>1.034161547644745</v>
       </c>
       <c r="J22">
-        <v>1.00000452670959</v>
+        <v>1.039844169674047</v>
       </c>
       <c r="K22">
-        <v>0.9970403924302715</v>
+        <v>1.037985188072436</v>
       </c>
       <c r="L22">
-        <v>1.00066293027221</v>
+        <v>1.044642626403314</v>
       </c>
       <c r="M22">
-        <v>0.9991822401094766</v>
+        <v>1.051983582893688</v>
       </c>
       <c r="N22">
-        <v>1.003598181355999</v>
+        <v>1.017160871971382</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9704950453432003</v>
+        <v>1.033453885886839</v>
       </c>
       <c r="D23">
-        <v>0.9833373009947568</v>
+        <v>1.034673563354111</v>
       </c>
       <c r="E23">
-        <v>0.9871170148104774</v>
+        <v>1.041375426016115</v>
       </c>
       <c r="F23">
-        <v>0.9859265570942581</v>
+        <v>1.048809261332943</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038698691146473</v>
+        <v>1.034255859235471</v>
       </c>
       <c r="J23">
-        <v>1.001893757946012</v>
+        <v>1.040173106046655</v>
       </c>
       <c r="K23">
-        <v>0.9989255813065947</v>
+        <v>1.038319427107384</v>
       </c>
       <c r="L23">
-        <v>1.0026292379321</v>
+        <v>1.044996006360851</v>
       </c>
       <c r="M23">
-        <v>1.001462652378961</v>
+        <v>1.052402215017313</v>
       </c>
       <c r="N23">
-        <v>1.004234860282121</v>
+        <v>1.017271080387632</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9808258738297777</v>
+        <v>1.035270465131909</v>
       </c>
       <c r="D24">
-        <v>0.9919344926791465</v>
+        <v>1.036263578909132</v>
       </c>
       <c r="E24">
-        <v>0.9960234728472014</v>
+        <v>1.043039328743248</v>
       </c>
       <c r="F24">
-        <v>0.9960608244001214</v>
+        <v>1.050729270652462</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041835946962532</v>
+        <v>1.034621676834751</v>
       </c>
       <c r="J24">
-        <v>1.009082531690528</v>
+        <v>1.041464927399438</v>
       </c>
       <c r="K24">
-        <v>1.006104743781121</v>
+        <v>1.039632720795832</v>
       </c>
       <c r="L24">
-        <v>1.01012078249304</v>
+        <v>1.046385007714061</v>
       </c>
       <c r="M24">
-        <v>1.010157471329915</v>
+        <v>1.054048724057287</v>
       </c>
       <c r="N24">
-        <v>1.006657603182375</v>
+        <v>1.017703731327774</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9921646487422525</v>
+        <v>1.037374172693537</v>
       </c>
       <c r="D25">
-        <v>1.001405290103106</v>
+        <v>1.038106161274087</v>
       </c>
       <c r="E25">
-        <v>1.005839572301754</v>
+        <v>1.044968344427688</v>
       </c>
       <c r="F25">
-        <v>1.007232855327161</v>
+        <v>1.052956598280683</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045203690451521</v>
+        <v>1.035034857957015</v>
       </c>
       <c r="J25">
-        <v>1.016958611886428</v>
+        <v>1.042957517085732</v>
       </c>
       <c r="K25">
-        <v>1.013981829852788</v>
+        <v>1.041151460542399</v>
       </c>
       <c r="L25">
-        <v>1.018347907779679</v>
+        <v>1.047992336259968</v>
       </c>
       <c r="M25">
-        <v>1.019719918632123</v>
+        <v>1.055956167753448</v>
       </c>
       <c r="N25">
-        <v>1.009311821062871</v>
+        <v>1.018203273542583</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_214/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_214/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03904870566557</v>
+        <v>1.000749367833321</v>
       </c>
       <c r="D2">
-        <v>1.039573821909864</v>
+        <v>1.008599941707553</v>
       </c>
       <c r="E2">
-        <v>1.046505508868202</v>
+        <v>1.01330059996288</v>
       </c>
       <c r="F2">
-        <v>1.054732616899275</v>
+        <v>1.01572802347872</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035355289966702</v>
+        <v>1.047689862530244</v>
       </c>
       <c r="J2">
-        <v>1.044142831731078</v>
+        <v>1.022907688514535</v>
       </c>
       <c r="K2">
-        <v>1.042358624097512</v>
+        <v>1.019940751892903</v>
       </c>
       <c r="L2">
-        <v>1.049270756065966</v>
+        <v>1.024577694768718</v>
       </c>
       <c r="M2">
-        <v>1.057475016126918</v>
+        <v>1.02697250572058</v>
       </c>
       <c r="N2">
-        <v>1.018599691489917</v>
+        <v>1.011316195995985</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040262663587245</v>
+        <v>1.006744243266982</v>
       </c>
       <c r="D3">
-        <v>1.040638363080612</v>
+        <v>1.013636541348481</v>
       </c>
       <c r="E3">
-        <v>1.04762084730265</v>
+        <v>1.018526198210191</v>
       </c>
       <c r="F3">
-        <v>1.056021930560533</v>
+        <v>1.021680552991228</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035582670209815</v>
+        <v>1.049387750105551</v>
       </c>
       <c r="J3">
-        <v>1.045000510791169</v>
+        <v>1.02705272677692</v>
       </c>
       <c r="K3">
-        <v>1.043232741507759</v>
+        <v>1.024097863378885</v>
       </c>
       <c r="L3">
-        <v>1.050196961774626</v>
+        <v>1.028927395913558</v>
       </c>
       <c r="M3">
-        <v>1.058576415766</v>
+        <v>1.032043343430295</v>
       </c>
       <c r="N3">
-        <v>1.018886367530547</v>
+        <v>1.012712344833089</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041047314531491</v>
+        <v>1.010521182820405</v>
       </c>
       <c r="D4">
-        <v>1.041326690368995</v>
+        <v>1.016815035979767</v>
       </c>
       <c r="E4">
-        <v>1.04834219839105</v>
+        <v>1.021825188113989</v>
       </c>
       <c r="F4">
-        <v>1.0568561116763</v>
+        <v>1.025439863793353</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035727358664905</v>
+        <v>1.050439288134759</v>
       </c>
       <c r="J4">
-        <v>1.045554125875561</v>
+        <v>1.029659531682343</v>
       </c>
       <c r="K4">
-        <v>1.043797258629948</v>
+        <v>1.026714667408481</v>
       </c>
       <c r="L4">
-        <v>1.050795346466586</v>
+        <v>1.031667149481683</v>
       </c>
       <c r="M4">
-        <v>1.05928845290075</v>
+        <v>1.035240649438194</v>
       </c>
       <c r="N4">
-        <v>1.019071333369091</v>
+        <v>1.013590146086595</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041376978058296</v>
+        <v>1.012085671119831</v>
       </c>
       <c r="D5">
-        <v>1.041615944383286</v>
+        <v>1.018132843715934</v>
       </c>
       <c r="E5">
-        <v>1.048645372791096</v>
+        <v>1.023193254622101</v>
       </c>
       <c r="F5">
-        <v>1.057206781726231</v>
+        <v>1.026999183314635</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035787601331858</v>
+        <v>1.050870423570676</v>
       </c>
       <c r="J5">
-        <v>1.045786541267573</v>
+        <v>1.030738147613459</v>
       </c>
       <c r="K5">
-        <v>1.044034320710817</v>
+        <v>1.027797998183113</v>
       </c>
       <c r="L5">
-        <v>1.051046685627428</v>
+        <v>1.032801798992113</v>
       </c>
       <c r="M5">
-        <v>1.05958764138645</v>
+        <v>1.0365656030761</v>
       </c>
       <c r="N5">
-        <v>1.019148965866174</v>
+        <v>1.013953290707108</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041432318137519</v>
+        <v>1.012347018138991</v>
       </c>
       <c r="D6">
-        <v>1.041664504480542</v>
+        <v>1.018353052146028</v>
       </c>
       <c r="E6">
-        <v>1.048696272367747</v>
+        <v>1.023421879344159</v>
       </c>
       <c r="F6">
-        <v>1.057265659676778</v>
+        <v>1.027259791294842</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03579768207925</v>
+        <v>1.050942181732448</v>
       </c>
       <c r="J6">
-        <v>1.045825545850985</v>
+        <v>1.030918259103748</v>
       </c>
       <c r="K6">
-        <v>1.044074109214416</v>
+        <v>1.027978930954601</v>
       </c>
       <c r="L6">
-        <v>1.051088873615689</v>
+        <v>1.032991327596587</v>
       </c>
       <c r="M6">
-        <v>1.059637867592404</v>
+        <v>1.036786967674944</v>
       </c>
       <c r="N6">
-        <v>1.019161993259774</v>
+        <v>1.014013926139245</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041051720309236</v>
+        <v>1.010542177867517</v>
       </c>
       <c r="D7">
-        <v>1.041330555860283</v>
+        <v>1.016832715936616</v>
       </c>
       <c r="E7">
-        <v>1.048346249740899</v>
+        <v>1.021843541150226</v>
       </c>
       <c r="F7">
-        <v>1.056860797421448</v>
+        <v>1.025460781086376</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035728165926282</v>
+        <v>1.050445091497915</v>
       </c>
       <c r="J7">
-        <v>1.045557232694396</v>
+        <v>1.029674011170194</v>
       </c>
       <c r="K7">
-        <v>1.043800427288721</v>
+        <v>1.026729207903172</v>
       </c>
       <c r="L7">
-        <v>1.050798705742374</v>
+        <v>1.031682377112148</v>
       </c>
       <c r="M7">
-        <v>1.059292451266706</v>
+        <v>1.035258427826718</v>
       </c>
       <c r="N7">
-        <v>1.019072371197415</v>
+        <v>1.013595021246052</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039459148153904</v>
+        <v>1.002797211383811</v>
       </c>
       <c r="D8">
-        <v>1.039933693385955</v>
+        <v>1.010319284425927</v>
       </c>
       <c r="E8">
-        <v>1.046882515616856</v>
+        <v>1.015084209034229</v>
       </c>
       <c r="F8">
-        <v>1.055168366608406</v>
+        <v>1.017759471597358</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035432639896037</v>
+        <v>1.048273642429558</v>
       </c>
       <c r="J8">
-        <v>1.044432970925531</v>
+        <v>1.024324582479637</v>
       </c>
       <c r="K8">
-        <v>1.042654263743004</v>
+        <v>1.021361265465654</v>
       </c>
       <c r="L8">
-        <v>1.049583965539049</v>
+        <v>1.026063659323302</v>
       </c>
       <c r="M8">
-        <v>1.05784737332081</v>
+        <v>1.028704135307449</v>
       </c>
       <c r="N8">
-        <v>1.018696685544703</v>
+        <v>1.011793485161803</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036646129853127</v>
+        <v>0.9883127429152812</v>
       </c>
       <c r="D9">
-        <v>1.037468333922469</v>
+        <v>0.9981838800814221</v>
       </c>
       <c r="E9">
-        <v>1.044300495865185</v>
+        <v>1.002500091121407</v>
       </c>
       <c r="F9">
-        <v>1.052185294810353</v>
+        <v>1.003431608101534</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034893174035429</v>
+        <v>1.044069526166517</v>
       </c>
       <c r="J9">
-        <v>1.042441395888919</v>
+        <v>1.014285067735469</v>
       </c>
       <c r="K9">
-        <v>1.040626129234296</v>
+        <v>1.01130649144637</v>
       </c>
       <c r="L9">
-        <v>1.047436232003699</v>
+        <v>1.015552735903701</v>
       </c>
       <c r="M9">
-        <v>1.055295962564934</v>
+        <v>1.01646925413435</v>
       </c>
       <c r="N9">
-        <v>1.018030581259352</v>
+        <v>1.00841089403252</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034766122767598</v>
+        <v>0.9780099648423889</v>
       </c>
       <c r="D10">
-        <v>1.035822038917788</v>
+        <v>0.9895881219720766</v>
       </c>
       <c r="E10">
-        <v>1.042577207388241</v>
+        <v>0.9935923440582808</v>
       </c>
       <c r="F10">
-        <v>1.050195910798633</v>
+        <v>0.993294401345566</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034520932776569</v>
+        <v>1.040986758730781</v>
       </c>
       <c r="J10">
-        <v>1.041106542230809</v>
+        <v>1.0071240557276</v>
       </c>
       <c r="K10">
-        <v>1.039268273446667</v>
+        <v>1.004147945655227</v>
       </c>
       <c r="L10">
-        <v>1.045999469802657</v>
+        <v>1.008078262569252</v>
       </c>
       <c r="M10">
-        <v>1.053591544179512</v>
+        <v>1.007785792199707</v>
       </c>
       <c r="N10">
-        <v>1.017583729843039</v>
+        <v>1.005997558676276</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033950917731294</v>
+        <v>0.9733741723653048</v>
       </c>
       <c r="D11">
-        <v>1.035108507426771</v>
+        <v>0.9857302255008871</v>
       </c>
       <c r="E11">
-        <v>1.041830519555309</v>
+        <v>0.9895956764313207</v>
       </c>
       <c r="F11">
-        <v>1.049334295290027</v>
+        <v>0.9887467933578676</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034356755672148</v>
+        <v>1.039578875537109</v>
       </c>
       <c r="J11">
-        <v>1.040526822130337</v>
+        <v>1.003898155526517</v>
       </c>
       <c r="K11">
-        <v>1.038678919042832</v>
+        <v>1.000926361338938</v>
       </c>
       <c r="L11">
-        <v>1.045376142135908</v>
+        <v>1.004716507017619</v>
       </c>
       <c r="M11">
-        <v>1.052852660220161</v>
+        <v>1.0038840954171</v>
       </c>
       <c r="N11">
-        <v>1.017389572144134</v>
+        <v>1.004910368329268</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033647938387484</v>
+        <v>0.9716239635216956</v>
       </c>
       <c r="D12">
-        <v>1.034843366652748</v>
+        <v>0.9842752953291681</v>
       </c>
       <c r="E12">
-        <v>1.041553090237034</v>
+        <v>0.988088587700786</v>
       </c>
       <c r="F12">
-        <v>1.049014220183822</v>
+        <v>0.9870320119568881</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03429532264083</v>
+        <v>1.039044323689895</v>
       </c>
       <c r="J12">
-        <v>1.040311227986485</v>
+        <v>1.002679765242947</v>
       </c>
       <c r="K12">
-        <v>1.038459795300717</v>
+        <v>0.9997100865127361</v>
       </c>
       <c r="L12">
-        <v>1.045144428157694</v>
+        <v>1.003447605745624</v>
       </c>
       <c r="M12">
-        <v>1.052578074229238</v>
+        <v>1.002411947945534</v>
       </c>
       <c r="N12">
-        <v>1.017317352372196</v>
+        <v>1.004499753177017</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033712936496341</v>
+        <v>0.9720007035057263</v>
       </c>
       <c r="D13">
-        <v>1.034900244960823</v>
+        <v>0.9845884015666152</v>
       </c>
       <c r="E13">
-        <v>1.041612603251982</v>
+        <v>0.9884129108917651</v>
       </c>
       <c r="F13">
-        <v>1.049082878907983</v>
+        <v>0.9874010283470959</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034308520621866</v>
+        <v>1.039159522689701</v>
       </c>
       <c r="J13">
-        <v>1.040357485471878</v>
+        <v>1.002942048959435</v>
       </c>
       <c r="K13">
-        <v>1.038506807677973</v>
+        <v>0.9999718928490132</v>
       </c>
       <c r="L13">
-        <v>1.045194139876011</v>
+        <v>1.003720726928222</v>
       </c>
       <c r="M13">
-        <v>1.052636979850697</v>
+        <v>1.002728791511773</v>
       </c>
       <c r="N13">
-        <v>1.017332848336449</v>
+        <v>1.004588146155641</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033925876970976</v>
+        <v>0.9732300887607868</v>
       </c>
       <c r="D14">
-        <v>1.035086592928902</v>
+        <v>0.9856104173523459</v>
       </c>
       <c r="E14">
-        <v>1.041807588728856</v>
+        <v>0.9894715697111344</v>
       </c>
       <c r="F14">
-        <v>1.049307838466293</v>
+        <v>0.9886055824840063</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034351686788474</v>
+        <v>1.039534929852571</v>
       </c>
       <c r="J14">
-        <v>1.040509006372142</v>
+        <v>1.003797862288812</v>
       </c>
       <c r="K14">
-        <v>1.038660810526741</v>
+        <v>1.000826232362785</v>
       </c>
       <c r="L14">
-        <v>1.045356992317398</v>
+        <v>1.004612039690691</v>
       </c>
       <c r="M14">
-        <v>1.05282996555514</v>
+        <v>1.0037628838704</v>
       </c>
       <c r="N14">
-        <v>1.017383604498172</v>
+        <v>1.004876567880036</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03405705322158</v>
+        <v>0.9739837431884929</v>
       </c>
       <c r="D15">
-        <v>1.035201394299087</v>
+        <v>0.986237160166477</v>
       </c>
       <c r="E15">
-        <v>1.041927715551323</v>
+        <v>0.9901208064008402</v>
       </c>
       <c r="F15">
-        <v>1.049446439050988</v>
+        <v>0.9893442978976993</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034378223198037</v>
+        <v>1.039764673358282</v>
       </c>
       <c r="J15">
-        <v>1.040602328851107</v>
+        <v>1.004322444759603</v>
       </c>
       <c r="K15">
-        <v>1.038755668712563</v>
+        <v>1.001349975435461</v>
       </c>
       <c r="L15">
-        <v>1.045457306860209</v>
+        <v>1.00515848720976</v>
       </c>
       <c r="M15">
-        <v>1.052948852906371</v>
+        <v>1.004396939525879</v>
       </c>
       <c r="N15">
-        <v>1.017414863649077</v>
+        <v>1.005053360984959</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034820200749569</v>
+        <v>0.9783137791883106</v>
       </c>
       <c r="D16">
-        <v>1.035869379262347</v>
+        <v>0.9898411686789457</v>
       </c>
       <c r="E16">
-        <v>1.042626752034868</v>
+        <v>0.9938545180628284</v>
       </c>
       <c r="F16">
-        <v>1.050253088946362</v>
+        <v>0.9935927266635985</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034531765543739</v>
+        <v>1.041078604408356</v>
       </c>
       <c r="J16">
-        <v>1.041144979949379</v>
+        <v>1.00733539976067</v>
       </c>
       <c r="K16">
-        <v>1.039307357431583</v>
+        <v>1.00435907370507</v>
       </c>
       <c r="L16">
-        <v>1.046040812549239</v>
+        <v>1.008298617787413</v>
       </c>
       <c r="M16">
-        <v>1.0536405631559</v>
+        <v>1.008041617049739</v>
       </c>
       <c r="N16">
-        <v>1.017596601324456</v>
+        <v>1.006068785918844</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03529859301808</v>
+        <v>0.9809817741026227</v>
       </c>
       <c r="D17">
-        <v>1.036288206479314</v>
+        <v>0.9920644630142997</v>
       </c>
       <c r="E17">
-        <v>1.043065105728307</v>
+        <v>0.9961581464986126</v>
       </c>
       <c r="F17">
-        <v>1.050759023817251</v>
+        <v>0.9962140764327052</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034627276622619</v>
+        <v>1.041882822639713</v>
       </c>
       <c r="J17">
-        <v>1.041484908891035</v>
+        <v>1.009190935814327</v>
       </c>
       <c r="K17">
-        <v>1.03965304269942</v>
+        <v>1.006213076449248</v>
       </c>
       <c r="L17">
-        <v>1.04640650751689</v>
+        <v>1.010233874321529</v>
       </c>
       <c r="M17">
-        <v>1.054074222869731</v>
+        <v>1.010288813836767</v>
       </c>
       <c r="N17">
-        <v>1.017710421289804</v>
+        <v>1.006694137294473</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035577520436321</v>
+        <v>0.9825212700888529</v>
       </c>
       <c r="D18">
-        <v>1.036532436330292</v>
+        <v>0.9933482734873589</v>
       </c>
       <c r="E18">
-        <v>1.043320742649048</v>
+        <v>0.9974884640153895</v>
       </c>
       <c r="F18">
-        <v>1.051054108050723</v>
+        <v>0.9977279419139876</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03468269775924</v>
+        <v>1.042344909548904</v>
       </c>
       <c r="J18">
-        <v>1.041683017901956</v>
+        <v>1.010261262898292</v>
       </c>
       <c r="K18">
-        <v>1.039854540705514</v>
+        <v>1.007282820773621</v>
       </c>
       <c r="L18">
-        <v>1.046619695545731</v>
+        <v>1.011350691125597</v>
       </c>
       <c r="M18">
-        <v>1.054327086477617</v>
+        <v>1.011586009629129</v>
       </c>
       <c r="N18">
-        <v>1.017776746129503</v>
+        <v>1.007054854762116</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03567260879704</v>
+        <v>0.9830434241512873</v>
       </c>
       <c r="D19">
-        <v>1.036615701436602</v>
+        <v>0.9937838584796113</v>
       </c>
       <c r="E19">
-        <v>1.043407900263683</v>
+        <v>0.997939848988599</v>
       </c>
       <c r="F19">
-        <v>1.051154721007822</v>
+        <v>0.9982416185762598</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034701545953705</v>
+        <v>1.042501300035632</v>
       </c>
       <c r="J19">
-        <v>1.041750539891842</v>
+        <v>1.010624224192197</v>
       </c>
       <c r="K19">
-        <v>1.039923223583796</v>
+        <v>1.007645635518664</v>
       </c>
       <c r="L19">
-        <v>1.046692367596937</v>
+        <v>1.01172950339099</v>
       </c>
       <c r="M19">
-        <v>1.054413292468105</v>
+        <v>1.012026066344024</v>
       </c>
       <c r="N19">
-        <v>1.017799350276481</v>
+        <v>1.007177177704152</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035247277529503</v>
+        <v>0.9806972649170239</v>
       </c>
       <c r="D20">
-        <v>1.036243277019332</v>
+        <v>0.9918272796798223</v>
       </c>
       <c r="E20">
-        <v>1.043018079442552</v>
+        <v>0.9959123807422028</v>
       </c>
       <c r="F20">
-        <v>1.050704743782459</v>
+        <v>0.9959344074042702</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03461705906994</v>
+        <v>1.041797266026501</v>
       </c>
       <c r="J20">
-        <v>1.041448454895936</v>
+        <v>1.008993102358803</v>
       </c>
       <c r="K20">
-        <v>1.039615967853801</v>
+        <v>1.006015375106582</v>
       </c>
       <c r="L20">
-        <v>1.046367283886471</v>
+        <v>1.010027488840832</v>
       </c>
       <c r="M20">
-        <v>1.05402770386631</v>
+        <v>1.010049124064943</v>
       </c>
       <c r="N20">
-        <v>1.01769821615256</v>
+        <v>1.006627463891242</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033863176189918</v>
+        <v>0.9728688632218141</v>
       </c>
       <c r="D21">
-        <v>1.035031720967756</v>
+        <v>0.9853100777110798</v>
       </c>
       <c r="E21">
-        <v>1.041750172487452</v>
+        <v>0.9891604570407024</v>
       </c>
       <c r="F21">
-        <v>1.04924159441004</v>
+        <v>0.9882515936549221</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034338987864126</v>
+        <v>1.039424707439937</v>
       </c>
       <c r="J21">
-        <v>1.040464394444338</v>
+        <v>1.003546414275955</v>
       </c>
       <c r="K21">
-        <v>1.038615466373473</v>
+        <v>1.000575203998536</v>
       </c>
       <c r="L21">
-        <v>1.045309041381894</v>
+        <v>1.004350139562532</v>
       </c>
       <c r="M21">
-        <v>1.052773139727537</v>
+        <v>1.003459014774981</v>
       </c>
       <c r="N21">
-        <v>1.017368660865268</v>
+        <v>1.004791825945989</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032991917465093</v>
+        <v>0.9677821103993455</v>
       </c>
       <c r="D22">
-        <v>1.034269368290551</v>
+        <v>0.9810846697132061</v>
       </c>
       <c r="E22">
-        <v>1.040952547019436</v>
+        <v>0.9847838902277845</v>
       </c>
       <c r="F22">
-        <v>1.048321463469906</v>
+        <v>0.9832719505123612</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034161547644745</v>
+        <v>1.037865502861242</v>
       </c>
       <c r="J22">
-        <v>1.039844169674047</v>
+        <v>1.00000452670959</v>
       </c>
       <c r="K22">
-        <v>1.037985188072436</v>
+        <v>0.9970403924302721</v>
       </c>
       <c r="L22">
-        <v>1.044642626403314</v>
+        <v>1.000662930272209</v>
       </c>
       <c r="M22">
-        <v>1.051983582893688</v>
+        <v>0.9991822401094766</v>
       </c>
       <c r="N22">
-        <v>1.017160871971382</v>
+        <v>1.003598181355999</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033453885886839</v>
+        <v>0.9704950453431996</v>
       </c>
       <c r="D23">
-        <v>1.034673563354111</v>
+        <v>0.9833373009947558</v>
       </c>
       <c r="E23">
-        <v>1.041375426016115</v>
+        <v>0.9871170148104769</v>
       </c>
       <c r="F23">
-        <v>1.048809261332943</v>
+        <v>0.9859265570942576</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034255859235471</v>
+        <v>1.038698691146473</v>
       </c>
       <c r="J23">
-        <v>1.040173106046655</v>
+        <v>1.001893757946011</v>
       </c>
       <c r="K23">
-        <v>1.038319427107384</v>
+        <v>0.9989255813065938</v>
       </c>
       <c r="L23">
-        <v>1.044996006360851</v>
+        <v>1.0026292379321</v>
       </c>
       <c r="M23">
-        <v>1.052402215017313</v>
+        <v>1.00146265237896</v>
       </c>
       <c r="N23">
-        <v>1.017271080387632</v>
+        <v>1.004234860282121</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035270465131909</v>
+        <v>0.9808258738297783</v>
       </c>
       <c r="D24">
-        <v>1.036263578909132</v>
+        <v>0.9919344926791468</v>
       </c>
       <c r="E24">
-        <v>1.043039328743248</v>
+        <v>0.9960234728472015</v>
       </c>
       <c r="F24">
-        <v>1.050729270652462</v>
+        <v>0.9960608244001218</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034621676834751</v>
+        <v>1.041835946962532</v>
       </c>
       <c r="J24">
-        <v>1.041464927399438</v>
+        <v>1.009082531690529</v>
       </c>
       <c r="K24">
-        <v>1.039632720795832</v>
+        <v>1.006104743781122</v>
       </c>
       <c r="L24">
-        <v>1.046385007714061</v>
+        <v>1.01012078249304</v>
       </c>
       <c r="M24">
-        <v>1.054048724057287</v>
+        <v>1.010157471329916</v>
       </c>
       <c r="N24">
-        <v>1.017703731327774</v>
+        <v>1.006657603182375</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037374172693537</v>
+        <v>0.9921646487422532</v>
       </c>
       <c r="D25">
-        <v>1.038106161274087</v>
+        <v>1.001405290103107</v>
       </c>
       <c r="E25">
-        <v>1.044968344427688</v>
+        <v>1.005839572301755</v>
       </c>
       <c r="F25">
-        <v>1.052956598280683</v>
+        <v>1.007232855327162</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035034857957015</v>
+        <v>1.045203690451521</v>
       </c>
       <c r="J25">
-        <v>1.042957517085732</v>
+        <v>1.016958611886429</v>
       </c>
       <c r="K25">
-        <v>1.041151460542399</v>
+        <v>1.013981829852789</v>
       </c>
       <c r="L25">
-        <v>1.047992336259968</v>
+        <v>1.01834790777968</v>
       </c>
       <c r="M25">
-        <v>1.055956167753448</v>
+        <v>1.019719918632124</v>
       </c>
       <c r="N25">
-        <v>1.018203273542583</v>
+        <v>1.009311821062871</v>
       </c>
     </row>
   </sheetData>
